--- a/biology/Médecine/Promandibulie_habsbourgeoise/Promandibulie_habsbourgeoise.xlsx
+++ b/biology/Médecine/Promandibulie_habsbourgeoise/Promandibulie_habsbourgeoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La promandibulie habsbourgeoise, aussi appelée mâchoire de Habsbourg ou prognathisme habsbourgeois (ou autrichien), est une malformation héréditaire retrouvée dans la famille de Habsbourg et qui se traduisait par une importante promandibulie inférieure (menton « en galoche »), rendant très difficile la parole et la mastication des aliments.
-Cette malformation était due à des mariages consanguins (particulièrement prononcés dans le cas de Charles II d'Espagne, qui souffrait de nombreux autres handicaps)[1].
+Cette malformation était due à des mariages consanguins (particulièrement prononcés dans le cas de Charles II d'Espagne, qui souffrait de nombreux autres handicaps).
 </t>
         </is>
       </c>
